--- a/PRACA2_/CSV/OP.xlsx
+++ b/PRACA2_/CSV/OP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maciek\Desktop\PRACA2_\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38CE819D-7E0E-48DD-B91B-D604EF26FACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455CA45E-ED9F-47F4-BD17-D664B09FCF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CFD59C4C-6A10-42C1-B26F-60A0F6C23653}"/>
   </bookViews>
@@ -394,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4CDE48C-0989-4C42-ADB0-B267E1EA2F8D}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,7 +415,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -423,7 +423,7 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -431,12 +431,12 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -444,18 +444,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
